--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -49,6 +49,15 @@
     <t>🥇 ChatGPT</t>
   </si>
   <si>
+    <t>chatgpt</t>
+  </si>
+  <si>
+    <t>🧬AI导航站</t>
+  </si>
+  <si>
+    <t>aidh</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -64,6 +73,99 @@
     <t>属性</t>
   </si>
   <si>
+    <t>小陈GPT💕</t>
+  </si>
+  <si>
+    <t>https://gpt.1nav.ml</t>
+  </si>
+  <si>
+    <t>https://gpt.1nav.ml/favicon.ico</t>
+  </si>
+  <si>
+    <t>向她提问，几乎无所不能</t>
+  </si>
+  <si>
+    <t>gpt</t>
+  </si>
+  <si>
+    <t>LiblibAI</t>
+  </si>
+  <si>
+    <t>https://www.liblibai.com</t>
+  </si>
+  <si>
+    <t>LiblibAI_中国首家原创AI模型分享社区</t>
+  </si>
+  <si>
+    <t>AI词汇加速器</t>
+  </si>
+  <si>
+    <t>https://ai.dawnmark.cn</t>
+  </si>
+  <si>
+    <t>AI词汇加速器社区</t>
+  </si>
+  <si>
+    <t>https://www.acceleratori.com</t>
+  </si>
+  <si>
+    <t>Nenly同学</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1As4y127HW</t>
+  </si>
+  <si>
+    <t>https://img.mjj.today/2023/04/29/4dde3f0985147426c1e3ab1130b5760c.jpg</t>
+  </si>
+  <si>
+    <t>B站第一套Stable Diffusion系统课程</t>
+  </si>
+  <si>
+    <t>免费的 ChatGPT</t>
+  </si>
+  <si>
+    <t>https://study.zwjjiaozhu.top/posts/chatgpt-mirror-sites.html</t>
+  </si>
+  <si>
+    <t>免费的 ChatGPT 镜像网站</t>
+  </si>
+  <si>
+    <t>AI大师</t>
+  </si>
+  <si>
+    <t>https://www.aidashi.cn</t>
+  </si>
+  <si>
+    <t>&lt;i style="color:red;"&gt;Vega AI&lt;/i&gt;🦄</t>
+  </si>
+  <si>
+    <t>https://rightbrain.art</t>
+  </si>
+  <si>
+    <t>👍免费的ai绘画网站</t>
+  </si>
+  <si>
+    <t>xztj</t>
+  </si>
+  <si>
+    <t>C站</t>
+  </si>
+  <si>
+    <t>https://civitai.com</t>
+  </si>
+  <si>
+    <t>最牛模型分享站（需魔法）</t>
+  </si>
+  <si>
+    <t>AI绘画提示词生成器</t>
+  </si>
+  <si>
+    <t>http://www.atoolbox.net/Tool.php?Id=1101</t>
+  </si>
+  <si>
+    <t>http://www.atoolbox.net/favicon.ico</t>
+  </si>
+  <si>
     <t>&lt;i style="color:red;"&gt;🤖一起用AI&lt;/i&gt;</t>
   </si>
   <si>
@@ -79,115 +181,34 @@
     <t>tj</t>
   </si>
   <si>
-    <t>LiblibAI</t>
-  </si>
-  <si>
-    <t>https://www.liblibai.com</t>
-  </si>
-  <si>
-    <t>LiblibAI_中国首家原创AI模型分享社区</t>
-  </si>
-  <si>
-    <t>AI词汇加速器</t>
-  </si>
-  <si>
-    <t>https://ai.dawnmark.cn</t>
-  </si>
-  <si>
-    <t>AI词汇加速器社区</t>
-  </si>
-  <si>
-    <t>https://www.acceleratori.com</t>
-  </si>
-  <si>
-    <t>Nenly同学</t>
-  </si>
-  <si>
-    <t>https://www.bilibili.com/video/BV1As4y127HW</t>
-  </si>
-  <si>
-    <t>https://img.mjj.today/2023/04/29/4dde3f0985147426c1e3ab1130b5760c.jpg</t>
-  </si>
-  <si>
-    <t>B站第一套Stable Diffusion系统课程</t>
-  </si>
-  <si>
-    <t>免费的 ChatGPT</t>
-  </si>
-  <si>
-    <t>https://study.zwjjiaozhu.top/posts/chatgpt-mirror-sites.html</t>
-  </si>
-  <si>
-    <t>免费的 ChatGPT 镜像网站</t>
-  </si>
-  <si>
-    <t>克隆窝</t>
-  </si>
-  <si>
-    <t>https://www.kelongwo.com/?aff=7168</t>
+    <t>炼丹阁</t>
+  </si>
+  <si>
+    <t>https://models.paomiantv.cn</t>
+  </si>
+  <si>
+    <t>https://models.paomiantv.cn/logo_198.png</t>
+  </si>
+  <si>
+    <t>国人制作的国内版C站</t>
+  </si>
+  <si>
+    <t>https://www.mubucm.com/doc/_2As4DSE4m</t>
+  </si>
+  <si>
+    <t>B站UP主Nenly同学分享</t>
+  </si>
+  <si>
+    <t>克隆窝Chatgpt</t>
+  </si>
+  <si>
+    <t>https://www.kelongwo.com/Resource_function/chatgpt/?aff=7168</t>
   </si>
   <si>
     <t>https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png</t>
   </si>
   <si>
-    <t>yyds 都很推荐的一个网站</t>
-  </si>
-  <si>
-    <t>C站</t>
-  </si>
-  <si>
-    <t>https://civitai.com</t>
-  </si>
-  <si>
-    <t>最牛模型分享站（需魔法）</t>
-  </si>
-  <si>
-    <t>AI绘画提示词生成器</t>
-  </si>
-  <si>
-    <t>http://www.atoolbox.net/Tool.php?Id=1101</t>
-  </si>
-  <si>
-    <t>http://www.atoolbox.net/favicon.ico</t>
-  </si>
-  <si>
-    <t>小陈GPT💕</t>
-  </si>
-  <si>
-    <t>https://gpt.1nav.ml</t>
-  </si>
-  <si>
-    <t>https://gpt.1nav.ml/favicon.ico</t>
-  </si>
-  <si>
-    <t>向她提问，几乎无所不能</t>
-  </si>
-  <si>
-    <t>gpt</t>
-  </si>
-  <si>
-    <t>炼丹阁</t>
-  </si>
-  <si>
-    <t>https://models.paomiantv.cn</t>
-  </si>
-  <si>
-    <t>https://models.paomiantv.cn/logo_198.png</t>
-  </si>
-  <si>
-    <t>国人制作的国内版C站</t>
-  </si>
-  <si>
-    <t>&lt;i style="color:red;"&gt;Vega AI&lt;/i&gt;🦄</t>
-  </si>
-  <si>
-    <t>https://rightbrain.art</t>
-  </si>
-  <si>
-    <t>👍免费的ai绘画网站</t>
-  </si>
-  <si>
-    <t>xztj</t>
+    <t>克隆窝的Chat ChatGPT</t>
   </si>
 </sst>
 </file>
@@ -195,9 +216,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -213,6 +234,28 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,33 +265,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -265,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +307,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -293,7 +321,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,60 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -368,21 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -399,31 +420,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,145 +558,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,6 +619,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +662,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -637,41 +682,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +700,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -698,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,133 +731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,35 +887,38 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -902,9 +926,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1228,8 +1249,8 @@
   <sheetPr/>
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1311,13 +1332,19 @@
       <c r="AE1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="6"/>
+      <c r="AF1" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="AG1" s="6"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="4"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="6"/>
+      <c r="AK1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="AM1" s="6"/>
       <c r="AN1" s="6"/>
       <c r="AO1" s="6"/>
@@ -1348,532 +1375,567 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:65">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="U2" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="V2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="AA2" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AB2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="AG2" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="18"/>
+      <c r="AM2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP2" s="19"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>
-      <c r="AV2" s="18"/>
+      <c r="AV2" s="19"/>
       <c r="AW2" s="7"/>
       <c r="AX2" s="7"/>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7"/>
-      <c r="BB2" s="18"/>
+      <c r="BB2" s="19"/>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
       <c r="BE2" s="7"/>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
-      <c r="BH2" s="18"/>
+      <c r="BH2" s="19"/>
       <c r="BI2" s="7"/>
       <c r="BJ2" s="7"/>
       <c r="BK2" s="7"/>
       <c r="BL2" s="7"/>
       <c r="BM2" s="7"/>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" ht="18.75" spans="1:62">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="11" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="M3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="10"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="M3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="16"/>
       <c r="S3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="Y3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" s="10"/>
+      <c r="Z3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="16"/>
       <c r="AE3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" s="9"/>
       <c r="AH3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AJ3" s="4"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BJ3" s="15"/>
+      <c r="AK3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BJ3" s="9"/>
     </row>
     <row r="4" spans="1:62">
-      <c r="A4" s="11" t="s">
-        <v>35</v>
+      <c r="A4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="M4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="T4" s="15"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="12"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="BD4" s="15"/>
-      <c r="BJ4" s="15"/>
-    </row>
-    <row r="5" ht="18.75" spans="1:62">
+        <v>46</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="M4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="11"/>
+      <c r="T4" s="9"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="11"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AK4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BJ4" s="9"/>
+    </row>
+    <row r="5" spans="1:62">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10"/>
-      <c r="T5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="BD5" s="15"/>
-      <c r="BJ5" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="M5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="T5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BJ5" s="9"/>
     </row>
     <row r="6" spans="1:56">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="10"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AL6" s="16"/>
-      <c r="AR6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="BD6" s="15"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="16"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="16"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="16"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AL6" s="12"/>
+      <c r="AR6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="BD6" s="9"/>
     </row>
     <row r="7" spans="8:56">
-      <c r="H7" s="15"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="10"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="12"/>
+      <c r="K7" s="16"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="12"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AX7" s="16"/>
-      <c r="BD7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="11"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AX7" s="12"/>
+      <c r="BD7" s="9"/>
     </row>
     <row r="8" spans="8:57">
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="10"/>
-      <c r="T8" s="16"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="BD8" s="15"/>
-      <c r="BE8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="T8" s="12"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="8:56">
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="Q9" s="10"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AX9" s="15"/>
-      <c r="BD9" s="15"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="Q9" s="16"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="BD9" s="9"/>
     </row>
     <row r="10" spans="8:56">
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="N10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
-      <c r="BD10" s="15"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
+      <c r="N10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="BD10" s="9"/>
     </row>
     <row r="11" spans="8:56">
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="N11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="16"/>
-      <c r="BD11" s="16"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
+      <c r="N11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="12"/>
+      <c r="BD11" s="12"/>
     </row>
     <row r="12" spans="8:50">
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="N12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="16"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AX12" s="15"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
+      <c r="N12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="12"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AX12" s="9"/>
     </row>
     <row r="13" spans="8:51">
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="N13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="N13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
     </row>
     <row r="14" spans="14:50">
-      <c r="N14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AX14" s="15"/>
+      <c r="N14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AX14" s="9"/>
     </row>
     <row r="15" spans="20:50">
-      <c r="T15" s="16"/>
-      <c r="AR15" s="15"/>
-      <c r="AX15" s="15"/>
+      <c r="T15" s="12"/>
+      <c r="AR15" s="9"/>
+      <c r="AX15" s="9"/>
     </row>
     <row r="16" spans="20:50">
-      <c r="T16" s="15"/>
-      <c r="AR16" s="15"/>
-      <c r="AS16" s="15"/>
-      <c r="AX16" s="15"/>
+      <c r="T16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AX16" s="9"/>
     </row>
     <row r="17" spans="20:50">
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="AR17" s="15"/>
-      <c r="AX17" s="16"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AX17" s="12"/>
     </row>
     <row r="18" spans="20:51">
-      <c r="T18" s="15"/>
-      <c r="AR18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
+      <c r="T18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
     </row>
     <row r="19" spans="43:50">
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="15"/>
-      <c r="AX19" s="15"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="9"/>
+      <c r="AX19" s="9"/>
     </row>
     <row r="20" spans="44:51">
-      <c r="AR20" s="15"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="15"/>
+      <c r="AR20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
     </row>
     <row r="21" spans="44:50">
-      <c r="AR21" s="15"/>
-      <c r="AX21" s="15"/>
+      <c r="AR21" s="9"/>
+      <c r="AX21" s="9"/>
     </row>
     <row r="22" spans="44:50">
-      <c r="AR22" s="15"/>
-      <c r="AX22" s="15"/>
+      <c r="AR22" s="9"/>
+      <c r="AX22" s="9"/>
     </row>
     <row r="23" spans="44:51">
-      <c r="AR23" s="15"/>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="15"/>
+      <c r="AR23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
     </row>
     <row r="24" spans="44:50">
-      <c r="AR24" s="15"/>
-      <c r="AX24" s="15"/>
+      <c r="AR24" s="9"/>
+      <c r="AX24" s="9"/>
     </row>
     <row r="25" spans="44:51">
       <c r="AR25" s="13"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
     </row>
     <row r="26" spans="44:50">
-      <c r="AR26" s="15"/>
-      <c r="AX26" s="15"/>
+      <c r="AR26" s="9"/>
+      <c r="AX26" s="9"/>
     </row>
     <row r="27" spans="44:50">
-      <c r="AR27" s="15"/>
-      <c r="AX27" s="15"/>
+      <c r="AR27" s="9"/>
+      <c r="AX27" s="9"/>
     </row>
     <row r="28" spans="50:50">
-      <c r="AX28" s="21"/>
+      <c r="AX28" s="18"/>
     </row>
     <row r="29" spans="50:50">
-      <c r="AX29" s="15"/>
+      <c r="AX29" s="9"/>
     </row>
     <row r="30" spans="50:51">
-      <c r="AX30" s="16"/>
-      <c r="AY30" s="15"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://www.kelongwo.com/?aff=7168"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://gpt.1nav.ml" tooltip="https://gpt.1nav.ml "/>
-    <hyperlink ref="C5" r:id="rId5" display="https://gpt.1nav.ml/favicon.ico" tooltip="https://gpt.1nav.ml/favicon.ico"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://rightbrain.art"/>
+    <hyperlink ref="AM4" r:id="rId1" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.kelongwo.com/Resource_function/chatgpt/?aff=7168" tooltip="https://www.kelongwo.com/Resource_function/chatgpt/?aff=7168"/>
+    <hyperlink ref="C6" r:id="rId3" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://gpt.1nav.ml" tooltip="https://gpt.1nav.ml "/>
+    <hyperlink ref="C3" r:id="rId5" display="https://gpt.1nav.ml/favicon.ico" tooltip="https://gpt.1nav.ml/favicon.ico"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://rightbrain.art"/>
     <hyperlink ref="AA3" r:id="rId7" display="https://img.mjj.today/2023/04/29/4dde3f0985147426c1e3ab1130b5760c.jpg"/>
     <hyperlink ref="Z3" r:id="rId8" display="https://www.bilibili.com/video/BV1As4y127HW"/>
     <hyperlink ref="H3" r:id="rId9" display="https://www.liblibai.com"/>
@@ -1885,6 +1947,9 @@
     <hyperlink ref="H5" r:id="rId15" display="https://models.paomiantv.cn"/>
     <hyperlink ref="I5" r:id="rId16" display="https://models.paomiantv.cn/logo_198.png"/>
     <hyperlink ref="AF3" r:id="rId17" display="https://study.zwjjiaozhu.top/posts/chatgpt-mirror-sites.html"/>
+    <hyperlink ref="AL3" r:id="rId18" display="https://www.aidashi.cn"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
+    <hyperlink ref="N5" r:id="rId19" display="https://www.mubucm.com/doc/_2As4DSE4m"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -163,7 +163,7 @@
     <t>http://www.atoolbox.net/Tool.php?Id=1101</t>
   </si>
   <si>
-    <t>http://www.atoolbox.net/favicon.ico</t>
+    <t>https://3o.hk/images/2023/04/30/tmp13F.png</t>
   </si>
   <si>
     <t>&lt;i style="color:red;"&gt;🤖一起用AI&lt;/i&gt;</t>
@@ -1249,8 +1249,8 @@
   <sheetPr/>
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1941,7 +1941,7 @@
     <hyperlink ref="H3" r:id="rId9" display="https://www.liblibai.com"/>
     <hyperlink ref="N3" r:id="rId10" display="https://ai.dawnmark.cn" tooltip="https://ai.dawnmark.cn"/>
     <hyperlink ref="N4" r:id="rId11" display="http://www.atoolbox.net/Tool.php?Id=1101" tooltip="http://www.atoolbox.net/Tool.php?Id=1101"/>
-    <hyperlink ref="O4" r:id="rId12" display="http://www.atoolbox.net/favicon.ico" tooltip="http://www.atoolbox.net/favicon.ico"/>
+    <hyperlink ref="O4" r:id="rId12" display="https://3o.hk/images/2023/04/30/tmp13F.png" tooltip="https://3o.hk/images/2023/04/30/tmp13F.png"/>
     <hyperlink ref="T3" r:id="rId13" display="https://www.acceleratori.com" tooltip="https://www.acceleratori.com"/>
     <hyperlink ref="H4" r:id="rId14" display="https://civitai.com"/>
     <hyperlink ref="H5" r:id="rId15" display="https://models.paomiantv.cn"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -277,6 +277,80 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -286,7 +360,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,34 +376,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,33 +389,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,38 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,49 +420,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,91 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,36 +601,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,21 +619,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,15 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -682,6 +658,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,17 +711,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -719,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,16 +731,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,112 +752,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -103,6 +103,9 @@
     <t>https://ai.dawnmark.cn</t>
   </si>
   <si>
+    <t>AI词汇加速器 AcceleratorI Prompt</t>
+  </si>
+  <si>
     <t>AI词汇加速器社区</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>https://www.aidashi.cn</t>
   </si>
   <si>
+    <t>AI大师(Aidashi.cn)汇聚500+国内外优秀的AI应用工具网址，是学习使用AI必备的网站之一！</t>
+  </si>
+  <si>
     <t>&lt;i style="color:red;"&gt;Vega AI&lt;/i&gt;🦄</t>
   </si>
   <si>
@@ -209,6 +215,15 @@
   </si>
   <si>
     <t>克隆窝的Chat ChatGPT</t>
+  </si>
+  <si>
+    <t>Danbooru 标签超市</t>
+  </si>
+  <si>
+    <t>https://tags.novelai.dev</t>
+  </si>
+  <si>
+    <t>tags标签超市，中英带图文</t>
   </si>
 </sst>
 </file>
@@ -216,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -278,14 +293,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,8 +375,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,21 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -343,63 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,13 +435,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,169 +561,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,17 +632,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +668,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,17 +699,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,17 +718,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,16 +746,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,112 +767,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1544,45 +1559,50 @@
         <v>28</v>
       </c>
       <c r="O3" s="15"/>
-      <c r="P3" s="10"/>
+      <c r="P3" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="Q3" s="16"/>
       <c r="S3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="16"/>
       <c r="AE3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG3" s="9"/>
       <c r="AH3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL3" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM3" s="9"/>
+      <c r="AN3" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="AR3" s="9"/>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9"/>
@@ -1591,38 +1611,40 @@
     </row>
     <row r="4" spans="1:62">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K4" s="16"/>
       <c r="M4" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="10"/>
       <c r="Q4" s="11"/>
       <c r="T4" s="9"/>
       <c r="Y4" s="10"/>
@@ -1633,19 +1655,19 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
       <c r="AK4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AL4" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AM4" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AO4" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AR4" s="9"/>
       <c r="AX4" s="9"/>
@@ -1654,42 +1676,42 @@
     </row>
     <row r="5" spans="1:62">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K5" s="16"/>
       <c r="M5" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="T5" s="9"/>
@@ -1706,29 +1728,35 @@
     </row>
     <row r="6" spans="1:56">
       <c r="A6" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10"/>
       <c r="K6" s="16"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
+      <c r="M6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="10"/>
+      <c r="P6" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="Q6" s="16"/>
       <c r="S6" s="10"/>
       <c r="T6" s="15"/>
@@ -1950,6 +1978,7 @@
     <hyperlink ref="AL3" r:id="rId18" display="https://www.aidashi.cn"/>
     <hyperlink ref="C5" r:id="rId1" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
     <hyperlink ref="N5" r:id="rId19" display="https://www.mubucm.com/doc/_2As4DSE4m"/>
+    <hyperlink ref="N6" r:id="rId20" display="https://tags.novelai.dev"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>tags标签超市，中英带图文</t>
+  </si>
+  <si>
+    <t>文本转语音</t>
+  </si>
+  <si>
+    <t>https://www.text-to-speech.cn</t>
   </si>
 </sst>
 </file>
@@ -231,9 +237,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -299,6 +305,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -307,15 +358,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,90 +420,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,61 +447,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,103 +615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +632,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,28 +694,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,15 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -717,15 +732,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -734,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,16 +752,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,16 +773,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,94 +788,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1264,8 +1270,8 @@
   <sheetPr/>
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1773,7 +1779,13 @@
       <c r="AY6" s="9"/>
       <c r="BD6" s="9"/>
     </row>
-    <row r="7" spans="8:56">
+    <row r="7" spans="1:56">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="11"/>
       <c r="J7" s="6"/>
@@ -1979,6 +1991,7 @@
     <hyperlink ref="C5" r:id="rId1" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
     <hyperlink ref="N5" r:id="rId19" display="https://www.mubucm.com/doc/_2As4DSE4m"/>
     <hyperlink ref="N6" r:id="rId20" display="https://tags.novelai.dev"/>
+    <hyperlink ref="B7" r:id="rId21" display="https://www.text-to-speech.cn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -205,6 +205,15 @@
     <t>B站UP主Nenly同学分享</t>
   </si>
   <si>
+    <t>AI导航站</t>
+  </si>
+  <si>
+    <t>https://123.lingduquan.com</t>
+  </si>
+  <si>
+    <t>chatgpt镜像站，ai绘画，ai语音等等收集站</t>
+  </si>
+  <si>
     <t>克隆窝Chatgpt</t>
   </si>
   <si>
@@ -230,6 +239,15 @@
   </si>
   <si>
     <t>https://www.text-to-speech.cn</t>
+  </si>
+  <si>
+    <t>免费在线文本转语音</t>
+  </si>
+  <si>
+    <t>在线免费文字转语音 - TTSMaker</t>
+  </si>
+  <si>
+    <t>https://ttsmaker.com/zh-cn</t>
   </si>
 </sst>
 </file>
@@ -238,8 +256,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -299,14 +317,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,10 +377,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,15 +413,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,66 +443,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -441,19 +459,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,162 +640,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +650,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,7 +683,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,31 +707,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,17 +727,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,10 +758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,133 +770,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1725,7 +1743,15 @@
       <c r="AA5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
-      <c r="AL5" s="9"/>
+      <c r="AK5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>65</v>
+      </c>
       <c r="AR5" s="9"/>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9"/>
@@ -1734,16 +1760,16 @@
     </row>
     <row r="6" spans="1:56">
       <c r="A6" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>56</v>
@@ -1754,14 +1780,14 @@
       <c r="J6" s="10"/>
       <c r="K6" s="16"/>
       <c r="M6" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="S6" s="10"/>
@@ -1781,10 +1807,13 @@
     </row>
     <row r="7" spans="1:56">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="11"/>
@@ -1808,7 +1837,16 @@
       <c r="AX7" s="12"/>
       <c r="BD7" s="9"/>
     </row>
-    <row r="8" spans="8:57">
+    <row r="8" spans="1:57">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="M8" s="10"/>
@@ -1992,6 +2030,11 @@
     <hyperlink ref="N5" r:id="rId19" display="https://www.mubucm.com/doc/_2As4DSE4m"/>
     <hyperlink ref="N6" r:id="rId20" display="https://tags.novelai.dev"/>
     <hyperlink ref="B7" r:id="rId21" display="https://www.text-to-speech.cn"/>
+    <hyperlink ref="AL5" r:id="rId22" display="https://123.lingduquan.com"/>
+    <hyperlink ref="AN5" r:id="rId23" display="chatgpt镜像站，ai绘画，ai语音等等收集站" tooltip="https://123.lingduquan.com/"/>
+    <hyperlink ref="B8" r:id="rId24" display="https://ttsmaker.com/zh-cn"/>
+    <hyperlink ref="D8" r:id="rId24" display="在线免费文字转语音 - TTSMaker" tooltip="https://ttsmaker.com/zh-cn"/>
+    <hyperlink ref="A8" r:id="rId24" display="在线免费文字转语音 - TTSMaker" tooltip="https://ttsmaker.com/zh-cn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -241,13 +241,16 @@
     <t>https://www.text-to-speech.cn</t>
   </si>
   <si>
-    <t>免费在线文本转语音</t>
+    <t>免费在线文本转语音（有限制）</t>
+  </si>
+  <si>
+    <t>TTSMaker</t>
+  </si>
+  <si>
+    <t>https://ttsmaker.com/zh-cn</t>
   </si>
   <si>
     <t>在线免费文字转语音 - TTSMaker</t>
-  </si>
-  <si>
-    <t>https://ttsmaker.com/zh-cn</t>
   </si>
 </sst>
 </file>
@@ -330,6 +333,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -338,91 +432,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,14 +446,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -459,49 +462,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,133 +630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,16 +657,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,26 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,15 +739,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -758,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,10 +773,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,109 +794,109 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1845,7 +1848,7 @@
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -2034,7 +2037,7 @@
     <hyperlink ref="AN5" r:id="rId23" display="chatgpt镜像站，ai绘画，ai语音等等收集站" tooltip="https://123.lingduquan.com/"/>
     <hyperlink ref="B8" r:id="rId24" display="https://ttsmaker.com/zh-cn"/>
     <hyperlink ref="D8" r:id="rId24" display="在线免费文字转语音 - TTSMaker" tooltip="https://ttsmaker.com/zh-cn"/>
-    <hyperlink ref="A8" r:id="rId24" display="在线免费文字转语音 - TTSMaker" tooltip="https://ttsmaker.com/zh-cn"/>
+    <hyperlink ref="A8" r:id="rId24" display="TTSMaker" tooltip="https://ttsmaker.com/zh-cn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -190,7 +190,7 @@
     <t>炼丹阁</t>
   </si>
   <si>
-    <t>https://models.paomiantv.cn</t>
+    <t>http://www.liandange.com</t>
   </si>
   <si>
     <t>https://models.paomiantv.cn/logo_198.png</t>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>在线免费文字转语音 - TTSMaker</t>
+  </si>
+  <si>
+    <t>ai合成视频</t>
+  </si>
+  <si>
+    <t>https://www.heygen.com/</t>
+  </si>
+  <si>
+    <t>ai合成人物说话视频，每天2分钟免费</t>
   </si>
 </sst>
 </file>
@@ -259,9 +268,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -319,6 +328,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -327,7 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,14 +374,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,21 +404,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -394,46 +420,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,6 +433,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -462,25 +471,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,67 +627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,85 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,6 +698,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -696,30 +720,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,17 +739,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,16 +782,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,112 +803,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -955,10 +964,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1292,7 +1301,7 @@
   <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1341,7 +1350,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="6" t="s">
@@ -1720,7 +1729,7 @@
       <c r="G5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="17" t="s">
         <v>58</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -1733,7 +1742,7 @@
       <c r="M5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="17" t="s">
         <v>61</v>
       </c>
       <c r="O5" s="11"/>
@@ -1866,7 +1875,16 @@
       <c r="BD8" s="9"/>
       <c r="BE8" s="9"/>
     </row>
-    <row r="9" spans="8:56">
+    <row r="9" spans="1:56">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="N9" s="9"/>
@@ -2000,7 +2018,7 @@
       <c r="AX27" s="9"/>
     </row>
     <row r="28" spans="50:50">
-      <c r="AX28" s="18"/>
+      <c r="AX28" s="17"/>
     </row>
     <row r="29" spans="50:50">
       <c r="AX29" s="9"/>
@@ -2025,7 +2043,7 @@
     <hyperlink ref="O4" r:id="rId12" display="https://3o.hk/images/2023/04/30/tmp13F.png" tooltip="https://3o.hk/images/2023/04/30/tmp13F.png"/>
     <hyperlink ref="T3" r:id="rId13" display="https://www.acceleratori.com" tooltip="https://www.acceleratori.com"/>
     <hyperlink ref="H4" r:id="rId14" display="https://civitai.com"/>
-    <hyperlink ref="H5" r:id="rId15" display="https://models.paomiantv.cn"/>
+    <hyperlink ref="H5" r:id="rId15" display="http://www.liandange.com" tooltip="http://www.liandange.com"/>
     <hyperlink ref="I5" r:id="rId16" display="https://models.paomiantv.cn/logo_198.png"/>
     <hyperlink ref="AF3" r:id="rId17" display="https://study.zwjjiaozhu.top/posts/chatgpt-mirror-sites.html"/>
     <hyperlink ref="AL3" r:id="rId18" display="https://www.aidashi.cn"/>
@@ -2038,6 +2056,7 @@
     <hyperlink ref="B8" r:id="rId24" display="https://ttsmaker.com/zh-cn"/>
     <hyperlink ref="D8" r:id="rId24" display="在线免费文字转语音 - TTSMaker" tooltip="https://ttsmaker.com/zh-cn"/>
     <hyperlink ref="A8" r:id="rId24" display="TTSMaker" tooltip="https://ttsmaker.com/zh-cn"/>
+    <hyperlink ref="B9" r:id="rId25" display="https://www.heygen.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -193,7 +193,7 @@
     <t>http://www.liandange.com</t>
   </si>
   <si>
-    <t>https://models.paomiantv.cn/logo_198.png</t>
+    <t>https://img.urlnode.com/file/88c4bff081aae58a0b39f.png</t>
   </si>
   <si>
     <t>国人制作的国内版C站</t>
@@ -268,9 +268,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -328,6 +328,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -336,6 +418,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -344,77 +433,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,36 +455,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -471,61 +471,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,121 +639,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,6 +662,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -683,42 +742,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -738,30 +762,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -770,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,16 +782,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,112 +803,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1732,7 +1732,7 @@
       <c r="H5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -2044,7 +2044,7 @@
     <hyperlink ref="T3" r:id="rId13" display="https://www.acceleratori.com" tooltip="https://www.acceleratori.com"/>
     <hyperlink ref="H4" r:id="rId14" display="https://civitai.com"/>
     <hyperlink ref="H5" r:id="rId15" display="http://www.liandange.com" tooltip="http://www.liandange.com"/>
-    <hyperlink ref="I5" r:id="rId16" display="https://models.paomiantv.cn/logo_198.png"/>
+    <hyperlink ref="I5" r:id="rId16" display="https://img.urlnode.com/file/88c4bff081aae58a0b39f.png" tooltip="https://img.urlnode.com/file/88c4bff081aae58a0b39f.png"/>
     <hyperlink ref="AF3" r:id="rId17" display="https://study.zwjjiaozhu.top/posts/chatgpt-mirror-sites.html"/>
     <hyperlink ref="AL3" r:id="rId18" display="https://www.aidashi.cn"/>
     <hyperlink ref="C5" r:id="rId1" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -193,7 +193,7 @@
     <t>http://www.liandange.com</t>
   </si>
   <si>
-    <t>https://img.urlnode.com/file/88c4bff081aae58a0b39f.png</t>
+    <t>https://3o.hk/images/2023/05/30/liandange.png</t>
   </si>
   <si>
     <t>国人制作的国内版C站</t>
@@ -267,10 +267,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -329,7 +329,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,8 +371,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,6 +395,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -372,33 +418,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,52 +455,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -477,181 +477,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,6 +690,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -706,10 +721,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -717,32 +730,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -762,6 +753,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -770,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,16 +782,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,109 +806,109 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2044,7 +2044,7 @@
     <hyperlink ref="T3" r:id="rId13" display="https://www.acceleratori.com" tooltip="https://www.acceleratori.com"/>
     <hyperlink ref="H4" r:id="rId14" display="https://civitai.com"/>
     <hyperlink ref="H5" r:id="rId15" display="http://www.liandange.com" tooltip="http://www.liandange.com"/>
-    <hyperlink ref="I5" r:id="rId16" display="https://img.urlnode.com/file/88c4bff081aae58a0b39f.png" tooltip="https://img.urlnode.com/file/88c4bff081aae58a0b39f.png"/>
+    <hyperlink ref="I5" r:id="rId16" display="https://3o.hk/images/2023/05/30/liandange.png" tooltip="https://3o.hk/images/2023/05/30/liandange.png"/>
     <hyperlink ref="AF3" r:id="rId17" display="https://study.zwjjiaozhu.top/posts/chatgpt-mirror-sites.html"/>
     <hyperlink ref="AL3" r:id="rId18" display="https://www.aidashi.cn"/>
     <hyperlink ref="C5" r:id="rId1" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8974A57E-D2E0-4731-9345-DB22C3017DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -260,19 +266,62 @@
   </si>
   <si>
     <t>ai合成人物说话视频，每天2分钟免费</t>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有趣网站</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://facecheck.id/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>face check</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceCheck-反向图像搜索-人脸识别搜索引擎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://weeklyreport.avemaria.fun/zh</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周报生成器 (avemaria.fun)</t>
+  </si>
+  <si>
+    <t>周报生成器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,14 +340,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,20 +355,20 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,17 +377,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -346,117 +387,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,198 +423,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -664,255 +436,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,31 +473,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -979,62 +512,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1292,19 +797,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="9" style="3"/>
@@ -1329,7 +834,7 @@
     <col min="61" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:65">
+    <row r="1" spans="1:65" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +844,6 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="3"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +853,6 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="3"/>
       <c r="M1" s="18" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +862,6 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="3"/>
       <c r="S1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1369,7 +871,6 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="3"/>
       <c r="Y1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +880,6 @@
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
-      <c r="AD1" s="4"/>
       <c r="AE1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1399,32 +899,32 @@
       <c r="AM1" s="6"/>
       <c r="AN1" s="6"/>
       <c r="AO1" s="6"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="6"/>
+      <c r="AQ1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR1" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
       <c r="AU1" s="6"/>
-      <c r="AV1" s="3"/>
       <c r="AW1" s="5"/>
       <c r="AX1" s="6"/>
       <c r="AY1" s="6"/>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="6"/>
-      <c r="BB1" s="3"/>
       <c r="BC1" s="5"/>
       <c r="BD1" s="6"/>
       <c r="BE1" s="6"/>
       <c r="BF1" s="6"/>
       <c r="BG1" s="6"/>
-      <c r="BH1" s="3"/>
       <c r="BI1" s="5"/>
       <c r="BJ1" s="6"/>
       <c r="BK1" s="6"/>
       <c r="BL1" s="6"/>
       <c r="BM1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:65">
+    <row r="2" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1537,11 +1037,21 @@
         <v>18</v>
       </c>
       <c r="AP2" s="19"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
+      <c r="AQ2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="AV2" s="19"/>
       <c r="AW2" s="7"/>
       <c r="AX2" s="7"/>
@@ -1561,7 +1071,7 @@
       <c r="BL2" s="7"/>
       <c r="BM2" s="7"/>
     </row>
-    <row r="3" ht="18.75" spans="1:62">
+    <row r="3" spans="1:65" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,13 +1149,21 @@
       <c r="AN3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR3" s="9"/>
+      <c r="AQ3" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT3" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9"/>
       <c r="BD3" s="9"/>
       <c r="BJ3" s="9"/>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1705,12 +1223,20 @@
       <c r="AO4" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AR4" s="9"/>
+      <c r="AQ4" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT4" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="AX4" s="9"/>
       <c r="BD4" s="9"/>
       <c r="BJ4" s="9"/>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1770,7 +1296,7 @@
       <c r="BD5" s="9"/>
       <c r="BJ5" s="9"/>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>66</v>
       </c>
@@ -1817,7 +1343,7 @@
       <c r="AY6" s="9"/>
       <c r="BD6" s="9"/>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1849,7 +1375,7 @@
       <c r="AX7" s="12"/>
       <c r="BD7" s="9"/>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1875,7 +1401,7 @@
       <c r="BD8" s="9"/>
       <c r="BE8" s="9"/>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -1898,7 +1424,7 @@
       <c r="AX9" s="9"/>
       <c r="BD9" s="9"/>
     </row>
-    <row r="10" spans="8:56">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="H10" s="9"/>
       <c r="I10" s="12"/>
       <c r="N10" s="9"/>
@@ -1911,7 +1437,7 @@
       <c r="AY10" s="9"/>
       <c r="BD10" s="9"/>
     </row>
-    <row r="11" spans="8:56">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="H11" s="9"/>
       <c r="I11" s="12"/>
       <c r="N11" s="9"/>
@@ -1923,7 +1449,7 @@
       <c r="AY11" s="12"/>
       <c r="BD11" s="12"/>
     </row>
-    <row r="12" spans="8:50">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
       <c r="H12" s="9"/>
       <c r="I12" s="12"/>
       <c r="N12" s="9"/>
@@ -1934,7 +1460,7 @@
       <c r="AR12" s="9"/>
       <c r="AX12" s="9"/>
     </row>
-    <row r="13" spans="8:51">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="N13" s="9"/>
@@ -1945,7 +1471,7 @@
       <c r="AX13" s="9"/>
       <c r="AY13" s="9"/>
     </row>
-    <row r="14" spans="14:50">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
       <c r="N14" s="9"/>
       <c r="T14" s="9"/>
       <c r="Z14" s="9"/>
@@ -1954,111 +1480,117 @@
       <c r="AS14" s="9"/>
       <c r="AX14" s="9"/>
     </row>
-    <row r="15" spans="20:50">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
       <c r="T15" s="12"/>
       <c r="AR15" s="9"/>
       <c r="AX15" s="9"/>
     </row>
-    <row r="16" spans="20:50">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
       <c r="T16" s="9"/>
       <c r="AR16" s="9"/>
       <c r="AS16" s="9"/>
       <c r="AX16" s="9"/>
     </row>
-    <row r="17" spans="20:50">
+    <row r="17" spans="20:51" x14ac:dyDescent="0.2">
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="AR17" s="9"/>
       <c r="AX17" s="12"/>
     </row>
-    <row r="18" spans="20:51">
+    <row r="18" spans="20:51" x14ac:dyDescent="0.2">
       <c r="T18" s="9"/>
       <c r="AR18" s="9"/>
       <c r="AX18" s="9"/>
       <c r="AY18" s="9"/>
     </row>
-    <row r="19" spans="43:50">
+    <row r="19" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AQ19" s="21"/>
       <c r="AR19" s="9"/>
       <c r="AX19" s="9"/>
     </row>
-    <row r="20" spans="44:51">
+    <row r="20" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AR20" s="9"/>
       <c r="AX20" s="9"/>
       <c r="AY20" s="9"/>
     </row>
-    <row r="21" spans="44:50">
+    <row r="21" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AR21" s="9"/>
       <c r="AX21" s="9"/>
     </row>
-    <row r="22" spans="44:50">
+    <row r="22" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AR22" s="9"/>
       <c r="AX22" s="9"/>
     </row>
-    <row r="23" spans="44:51">
+    <row r="23" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AR23" s="9"/>
       <c r="AX23" s="9"/>
       <c r="AY23" s="9"/>
     </row>
-    <row r="24" spans="44:50">
+    <row r="24" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AR24" s="9"/>
       <c r="AX24" s="9"/>
     </row>
-    <row r="25" spans="44:51">
+    <row r="25" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AR25" s="13"/>
       <c r="AX25" s="9"/>
       <c r="AY25" s="9"/>
     </row>
-    <row r="26" spans="44:50">
+    <row r="26" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AR26" s="9"/>
       <c r="AX26" s="9"/>
     </row>
-    <row r="27" spans="44:50">
+    <row r="27" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AR27" s="9"/>
       <c r="AX27" s="9"/>
     </row>
-    <row r="28" spans="50:50">
+    <row r="28" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AX28" s="17"/>
     </row>
-    <row r="29" spans="50:50">
+    <row r="29" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AX29" s="9"/>
     </row>
-    <row r="30" spans="50:51">
+    <row r="30" spans="20:51" x14ac:dyDescent="0.2">
       <c r="AX30" s="12"/>
       <c r="AY30" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AM4" r:id="rId1" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.kelongwo.com/Resource_function/chatgpt/?aff=7168" tooltip="https://www.kelongwo.com/Resource_function/chatgpt/?aff=7168"/>
-    <hyperlink ref="C6" r:id="rId3" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://gpt.1nav.ml" tooltip="https://gpt.1nav.ml "/>
-    <hyperlink ref="C3" r:id="rId5" display="https://gpt.1nav.ml/favicon.ico" tooltip="https://gpt.1nav.ml/favicon.ico"/>
-    <hyperlink ref="B4" r:id="rId6" display="https://rightbrain.art"/>
-    <hyperlink ref="AA3" r:id="rId7" display="https://img.mjj.today/2023/04/29/4dde3f0985147426c1e3ab1130b5760c.jpg"/>
-    <hyperlink ref="Z3" r:id="rId8" display="https://www.bilibili.com/video/BV1As4y127HW"/>
-    <hyperlink ref="H3" r:id="rId9" display="https://www.liblibai.com"/>
-    <hyperlink ref="N3" r:id="rId10" display="https://ai.dawnmark.cn" tooltip="https://ai.dawnmark.cn"/>
-    <hyperlink ref="N4" r:id="rId11" display="http://www.atoolbox.net/Tool.php?Id=1101" tooltip="http://www.atoolbox.net/Tool.php?Id=1101"/>
-    <hyperlink ref="O4" r:id="rId12" display="https://3o.hk/images/2023/04/30/tmp13F.png" tooltip="https://3o.hk/images/2023/04/30/tmp13F.png"/>
-    <hyperlink ref="T3" r:id="rId13" display="https://www.acceleratori.com" tooltip="https://www.acceleratori.com"/>
-    <hyperlink ref="H4" r:id="rId14" display="https://civitai.com"/>
-    <hyperlink ref="H5" r:id="rId15" display="http://www.liandange.com" tooltip="http://www.liandange.com"/>
-    <hyperlink ref="I5" r:id="rId16" display="https://3o.hk/images/2023/05/30/liandange.png" tooltip="https://3o.hk/images/2023/05/30/liandange.png"/>
-    <hyperlink ref="AF3" r:id="rId17" display="https://study.zwjjiaozhu.top/posts/chatgpt-mirror-sites.html"/>
-    <hyperlink ref="AL3" r:id="rId18" display="https://www.aidashi.cn"/>
-    <hyperlink ref="C5" r:id="rId1" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
-    <hyperlink ref="N5" r:id="rId19" display="https://www.mubucm.com/doc/_2As4DSE4m"/>
-    <hyperlink ref="N6" r:id="rId20" display="https://tags.novelai.dev"/>
-    <hyperlink ref="B7" r:id="rId21" display="https://www.text-to-speech.cn"/>
-    <hyperlink ref="AL5" r:id="rId22" display="https://123.lingduquan.com"/>
-    <hyperlink ref="AN5" r:id="rId23" display="chatgpt镜像站，ai绘画，ai语音等等收集站" tooltip="https://123.lingduquan.com/"/>
-    <hyperlink ref="B8" r:id="rId24" display="https://ttsmaker.com/zh-cn"/>
-    <hyperlink ref="D8" r:id="rId24" display="在线免费文字转语音 - TTSMaker" tooltip="https://ttsmaker.com/zh-cn"/>
-    <hyperlink ref="A8" r:id="rId24" display="TTSMaker" tooltip="https://ttsmaker.com/zh-cn"/>
-    <hyperlink ref="B9" r:id="rId25" display="https://www.heygen.com/"/>
+    <hyperlink ref="AM4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" tooltip="https://www.kelongwo.com/Resource_function/chatgpt/?aff=7168" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" tooltip="https://gpt.1nav.ml " xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C3" r:id="rId5" tooltip="https://gpt.1nav.ml/favicon.ico" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AA3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Z3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N3" r:id="rId10" tooltip="https://ai.dawnmark.cn" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N4" r:id="rId11" tooltip="http://www.atoolbox.net/Tool.php?Id=1101" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O4" r:id="rId12" tooltip="https://3o.hk/images/2023/04/30/tmp13F.png" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="T3" r:id="rId13" tooltip="https://www.acceleratori.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H5" r:id="rId15" tooltip="http://www.liandange.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I5" r:id="rId16" tooltip="https://3o.hk/images/2023/05/30/liandange.png" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AF3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AL3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AL5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AN5" r:id="rId24" tooltip="https://123.lingduquan.com/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D8" r:id="rId26" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A8" r:id="rId27" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AR3" r:id="rId29" xr:uid="{AF1A3415-B14E-4607-8EFB-B38D15549107}"/>
+    <hyperlink ref="AT3" r:id="rId30" display="https://facecheck.id/" xr:uid="{D187175A-2E5F-4D5A-92EC-82A6E80A6CCA}"/>
+    <hyperlink ref="AR4" r:id="rId31" xr:uid="{39C4BE9B-D456-41BB-A7A3-A0A0443C5CFA}"/>
+    <hyperlink ref="AT4" r:id="rId32" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{458A945F-FD62-4FC0-AD8B-F489D5A66FB6}"/>
+    <hyperlink ref="AQ4" r:id="rId33" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{E05797E2-1393-45AC-B76B-76E4DC6AE9BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8974A57E-D2E0-4731-9345-DB22C3017DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BBAEFE-90EC-42D9-A58E-175C54AAAA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -218,18 +218,6 @@
   </si>
   <si>
     <t>chatgpt镜像站，ai绘画，ai语音等等收集站</t>
-  </si>
-  <si>
-    <t>克隆窝Chatgpt</t>
-  </si>
-  <si>
-    <t>https://www.kelongwo.com/Resource_function/chatgpt/?aff=7168</t>
-  </si>
-  <si>
-    <t>https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png</t>
-  </si>
-  <si>
-    <t>克隆窝的Chat ChatGPT</t>
   </si>
   <si>
     <t>Danbooru 标签超市</t>
@@ -445,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,13 +449,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -476,9 +461,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -500,7 +482,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -512,17 +494,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -805,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AU6" sqref="AU6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -838,247 +817,211 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
       <c r="S1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
       <c r="Y1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
       <c r="AE1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AQ1" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR1" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
+      <c r="AQ1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="AW1" s="5"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
       <c r="BC1" s="5"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
       <c r="BI1" s="5"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
     </row>
     <row r="2" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="7" t="s">
+      <c r="X2" s="17"/>
+      <c r="Y2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AM2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AO2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="7" t="s">
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AR2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AT2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AU2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
     </row>
     <row r="3" spans="1:65" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1087,54 +1030,54 @@
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="M3" s="10" t="s">
+      <c r="K3" s="14"/>
+      <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="10" t="s">
+      <c r="O3" s="13"/>
+      <c r="P3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="14"/>
       <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="16"/>
+      <c r="AC3" s="14"/>
       <c r="AE3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AG3" s="9"/>
+      <c r="AG3" s="8"/>
       <c r="AH3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1142,32 +1085,32 @@
       <c r="AK3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="9"/>
+      <c r="AM3" s="8"/>
       <c r="AN3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ3" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BJ3" s="9"/>
+      <c r="AQ3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BJ3" s="8"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1176,421 +1119,392 @@
       <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="M4" s="10" t="s">
+      <c r="K4" s="14"/>
+      <c r="M4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="T4" s="9"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="11"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="T4" s="8"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
       <c r="AK4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL4" s="14" t="s">
+      <c r="AL4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AM4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AN4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AO4" s="16" t="s">
+      <c r="AO4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AQ4" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BJ4" s="9"/>
+      <c r="AQ4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT4" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BJ4" s="8"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="M5" s="10" t="s">
+      <c r="K5" s="14"/>
+      <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="10" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="T5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="Q5" s="14"/>
+      <c r="T5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
       <c r="AK5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AL5" s="8" t="s">
         <v>64</v>
       </c>
       <c r="AN5" t="s">
         <v>65</v>
       </c>
-      <c r="AR5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="BD5" s="9"/>
-      <c r="BJ5" s="9"/>
+      <c r="AR5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BJ5" s="8"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="14"/>
+      <c r="M6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="N6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="O6" s="9"/>
+      <c r="P6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="16"/>
-      <c r="M6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="10" t="s">
+      <c r="Q6" s="14"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="W6" s="14"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AL6" s="10"/>
+      <c r="AR6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="BD6" s="8"/>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="16"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AL6" s="12"/>
-      <c r="AR6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="BD6" s="9"/>
-    </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="14"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="Q7" s="14"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AX7" s="10"/>
+      <c r="BD7" s="8"/>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="16"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="16"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="11"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AX7" s="12"/>
-      <c r="BD7" s="9"/>
-    </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="16"/>
-      <c r="T8" s="12"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="BD8" s="9"/>
-      <c r="BE8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="Q8" s="14"/>
+      <c r="T8" s="10"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="Q9" s="16"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="BD9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="Q9" s="14"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="BD9" s="8"/>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
-      <c r="N10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="BD10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="N10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="BD10" s="8"/>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
-      <c r="N11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="12"/>
-      <c r="BD11" s="12"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="N11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="10"/>
+      <c r="BD11" s="10"/>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
-      <c r="N12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="12"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AX12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="N12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="10"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="N13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="N13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="N14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AX14" s="9"/>
+      <c r="N14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="T15" s="12"/>
-      <c r="AR15" s="9"/>
-      <c r="AX15" s="9"/>
+      <c r="T15" s="10"/>
+      <c r="AR15" s="8"/>
+      <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="T16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="9"/>
-      <c r="AX16" s="9"/>
+      <c r="T16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AX17" s="12"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AX17" s="10"/>
     </row>
     <row r="18" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="T18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
+      <c r="T18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
     </row>
     <row r="19" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AQ19" s="21"/>
-      <c r="AR19" s="9"/>
-      <c r="AX19" s="9"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="8"/>
+      <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
+      <c r="AR20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
     </row>
     <row r="21" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR21" s="9"/>
-      <c r="AX21" s="9"/>
+      <c r="AR21" s="8"/>
+      <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR22" s="9"/>
-      <c r="AX22" s="9"/>
+      <c r="AR22" s="8"/>
+      <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR23" s="9"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
+      <c r="AR23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
     </row>
     <row r="24" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR24" s="9"/>
-      <c r="AX24" s="9"/>
+      <c r="AR24" s="8"/>
+      <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR25" s="13"/>
-      <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
+      <c r="AR25" s="11"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
     </row>
     <row r="26" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR26" s="9"/>
-      <c r="AX26" s="9"/>
+      <c r="AR26" s="8"/>
+      <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR27" s="9"/>
-      <c r="AX27" s="9"/>
+      <c r="AR27" s="8"/>
+      <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AX28" s="17"/>
+      <c r="AX28" s="15"/>
     </row>
     <row r="29" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AX29" s="9"/>
+      <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AX30" s="12"/>
-      <c r="AY30" s="9"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AM4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" tooltip="https://www.kelongwo.com/Resource_function/chatgpt/?aff=7168" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B3" r:id="rId4" tooltip="https://gpt.1nav.ml " xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C3" r:id="rId5" tooltip="https://gpt.1nav.ml/favicon.ico" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AA3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Z3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N3" r:id="rId10" tooltip="https://ai.dawnmark.cn" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="N4" r:id="rId11" tooltip="http://www.atoolbox.net/Tool.php?Id=1101" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O4" r:id="rId12" tooltip="https://3o.hk/images/2023/04/30/tmp13F.png" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="T3" r:id="rId13" tooltip="https://www.acceleratori.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H5" r:id="rId15" tooltip="http://www.liandange.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I5" r:id="rId16" tooltip="https://3o.hk/images/2023/05/30/liandange.png" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AF3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AL3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="N5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AL5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AN5" r:id="rId24" tooltip="https://123.lingduquan.com/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D8" r:id="rId26" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A8" r:id="rId27" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AR3" r:id="rId29" xr:uid="{AF1A3415-B14E-4607-8EFB-B38D15549107}"/>
-    <hyperlink ref="AT3" r:id="rId30" display="https://facecheck.id/" xr:uid="{D187175A-2E5F-4D5A-92EC-82A6E80A6CCA}"/>
-    <hyperlink ref="AR4" r:id="rId31" xr:uid="{39C4BE9B-D456-41BB-A7A3-A0A0443C5CFA}"/>
-    <hyperlink ref="AT4" r:id="rId32" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{458A945F-FD62-4FC0-AD8B-F489D5A66FB6}"/>
-    <hyperlink ref="AQ4" r:id="rId33" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{E05797E2-1393-45AC-B76B-76E4DC6AE9BF}"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="https://gpt.1nav.ml " xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C3" r:id="rId3" tooltip="https://gpt.1nav.ml/favicon.ico" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AA3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Z3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N3" r:id="rId8" tooltip="https://ai.dawnmark.cn" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N4" r:id="rId9" tooltip="http://www.atoolbox.net/Tool.php?Id=1101" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O4" r:id="rId10" tooltip="https://3o.hk/images/2023/04/30/tmp13F.png" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="T3" r:id="rId11" tooltip="https://www.acceleratori.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H5" r:id="rId13" tooltip="http://www.liandange.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I5" r:id="rId14" tooltip="https://3o.hk/images/2023/05/30/liandange.png" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AF3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AL3" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C5" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AL5" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AN5" r:id="rId22" tooltip="https://123.lingduquan.com/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D7" r:id="rId24" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A7" r:id="rId25" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B8" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AR3" r:id="rId27" xr:uid="{AF1A3415-B14E-4607-8EFB-B38D15549107}"/>
+    <hyperlink ref="AT3" r:id="rId28" display="https://facecheck.id/" xr:uid="{D187175A-2E5F-4D5A-92EC-82A6E80A6CCA}"/>
+    <hyperlink ref="AR4" r:id="rId29" xr:uid="{39C4BE9B-D456-41BB-A7A3-A0A0443C5CFA}"/>
+    <hyperlink ref="AT4" r:id="rId30" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{458A945F-FD62-4FC0-AD8B-F489D5A66FB6}"/>
+    <hyperlink ref="AQ4" r:id="rId31" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{E05797E2-1393-45AC-B76B-76E4DC6AE9BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BBAEFE-90EC-42D9-A58E-175C54AAAA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54899B66-A3BF-44BC-867E-D9779B539D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>周报生成器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bing.vcanbb.top/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软 New Bing 演示站点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软 New Bing</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +797,7 @@
   <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1327,6 +1339,15 @@
       <c r="BE8" s="8"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="N9" s="8"/>
@@ -1503,8 +1524,9 @@
     <hyperlink ref="AR4" r:id="rId29" xr:uid="{39C4BE9B-D456-41BB-A7A3-A0A0443C5CFA}"/>
     <hyperlink ref="AT4" r:id="rId30" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{458A945F-FD62-4FC0-AD8B-F489D5A66FB6}"/>
     <hyperlink ref="AQ4" r:id="rId31" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{E05797E2-1393-45AC-B76B-76E4DC6AE9BF}"/>
+    <hyperlink ref="B9" r:id="rId32" xr:uid="{B12E20D9-143C-4475-AB0E-6E81D673BCCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54899B66-A3BF-44BC-867E-D9779B539D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF07780-36A2-4E06-B4C2-5783F73A687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -315,6 +315,13 @@
   <si>
     <t>微软 New Bing</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.aigodlike.com/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIGODLIKE社区</t>
   </si>
 </sst>
 </file>
@@ -796,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,8 +1306,16 @@
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="K7" s="14"/>
-      <c r="N7" s="8"/>
+      <c r="M7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="O7" s="9"/>
+      <c r="P7" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="Q7" s="14"/>
       <c r="T7" s="13"/>
       <c r="U7" s="9"/>
@@ -1525,8 +1540,11 @@
     <hyperlink ref="AT4" r:id="rId30" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{458A945F-FD62-4FC0-AD8B-F489D5A66FB6}"/>
     <hyperlink ref="AQ4" r:id="rId31" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{E05797E2-1393-45AC-B76B-76E4DC6AE9BF}"/>
     <hyperlink ref="B9" r:id="rId32" xr:uid="{B12E20D9-143C-4475-AB0E-6E81D673BCCD}"/>
+    <hyperlink ref="N7" r:id="rId33" xr:uid="{F88F6721-E51F-49E0-8C66-CDF39CF39C02}"/>
+    <hyperlink ref="M7" r:id="rId34" display="https://www.aigodlike.com/" xr:uid="{B99CA26A-2477-44C1-B417-B0BE6BEF6F00}"/>
+    <hyperlink ref="P7" r:id="rId35" display="https://www.aigodlike.com/" xr:uid="{2F04B75E-4981-4079-85B8-B87D35066D3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF07780-36A2-4E06-B4C2-5783F73A687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC28C36-1986-43BB-8F5F-BCC2B56EE5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -323,12 +323,29 @@
   <si>
     <t>AIGODLIKE社区</t>
   </si>
+  <si>
+    <t>https://learningprompt.wiki/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费的 Prompt Engineering 教程</t>
+  </si>
+  <si>
+    <t>现已包含 ChatGPT 和 Midjourney 教程</t>
+  </si>
+  <si>
+    <t>Start Learning</t>
+  </si>
+  <si>
+    <t>mj chatgpt教程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +437,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -452,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +547,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -803,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1376,7 +1405,16 @@
       <c r="AX9" s="8"/>
       <c r="BD9" s="8"/>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="69" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="10"/>
       <c r="N10" s="8"/>
@@ -1389,7 +1427,10 @@
       <c r="AY10" s="8"/>
       <c r="BD10" s="8"/>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="86.25" x14ac:dyDescent="0.2">
+      <c r="D11" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="10"/>
       <c r="N11" s="8"/>
@@ -1402,6 +1443,7 @@
       <c r="BD11" s="10"/>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="D12"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10"/>
       <c r="N12" s="8"/>
@@ -1412,7 +1454,10 @@
       <c r="AR12" s="8"/>
       <c r="AX12" s="8"/>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D13" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="N13" s="8"/>
@@ -1543,8 +1588,10 @@
     <hyperlink ref="N7" r:id="rId33" xr:uid="{F88F6721-E51F-49E0-8C66-CDF39CF39C02}"/>
     <hyperlink ref="M7" r:id="rId34" display="https://www.aigodlike.com/" xr:uid="{B99CA26A-2477-44C1-B417-B0BE6BEF6F00}"/>
     <hyperlink ref="P7" r:id="rId35" display="https://www.aigodlike.com/" xr:uid="{2F04B75E-4981-4079-85B8-B87D35066D3D}"/>
+    <hyperlink ref="B10" r:id="rId36" xr:uid="{B6A068DE-F12F-4FC1-8595-76EB3DD283BC}"/>
+    <hyperlink ref="D13" r:id="rId37" display="https://learningprompt.wiki/docs" xr:uid="{9DAAE0B4-2567-46B7-B49F-13A762B7C505}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC28C36-1986-43BB-8F5F-BCC2B56EE5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C21B35E-2267-43B2-8B72-B9918B1210AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>ai合成视频</t>
-  </si>
-  <si>
-    <t>https://www.heygen.com/</t>
   </si>
   <si>
     <t>ai合成人物说话视频，每天2分钟免费</t>
@@ -305,10 +302,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>https://bing.vcanbb.top/</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>微软 New Bing 演示站点</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -324,20 +317,97 @@
     <t>AIGODLIKE社区</t>
   </si>
   <si>
-    <t>https://learningprompt.wiki/</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费的 Prompt Engineering 教程</t>
-  </si>
-  <si>
-    <t>现已包含 ChatGPT 和 Midjourney 教程</t>
-  </si>
-  <si>
-    <t>Start Learning</t>
-  </si>
-  <si>
     <t>mj chatgpt教程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>免费的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Prompt Engineering </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教程现已包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ChatGPT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Midjourney </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教程</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heygen.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bing.vcanbb.top</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://learningprompt.wiki</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.aalab.com.cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键 AI 资产编辑工具</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>found ai</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +513,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -542,17 +626,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -832,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -906,10 +990,10 @@
         <v>13</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AW1" s="5"/>
       <c r="BC1" s="5"/>
@@ -1141,13 +1225,13 @@
         <v>41</v>
       </c>
       <c r="AQ3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT3" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT3" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
@@ -1212,14 +1296,14 @@
       <c r="AO4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AQ4" s="23" t="s">
-        <v>85</v>
+      <c r="AQ4" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="AR4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT4" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="AT4" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="BD4" s="8"/>
@@ -1276,10 +1360,18 @@
       <c r="AL5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AR5" s="8"/>
+      <c r="AQ5" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT5" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
       <c r="BD5" s="8"/>
@@ -1323,27 +1415,27 @@
       <c r="BD6" s="8"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="K7" s="14"/>
-      <c r="M7" s="22" t="s">
-        <v>90</v>
+      <c r="M7" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O7" s="9"/>
-      <c r="P7" s="22" t="s">
-        <v>90</v>
+      <c r="P7" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="T7" s="13"/>
@@ -1363,10 +1455,10 @@
         <v>75</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1384,13 +1476,13 @@
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1405,15 +1497,15 @@
       <c r="AX9" s="8"/>
       <c r="BD9" s="8"/>
     </row>
-    <row r="10" spans="1:65" ht="69" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="10"/>
@@ -1427,10 +1519,8 @@
       <c r="AY10" s="8"/>
       <c r="BD10" s="8"/>
     </row>
-    <row r="11" spans="1:65" ht="86.25" x14ac:dyDescent="0.2">
-      <c r="D11" s="24" t="s">
-        <v>93</v>
-      </c>
+    <row r="11" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D11" s="24"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10"/>
       <c r="N11" s="8"/>
@@ -1443,7 +1533,7 @@
       <c r="BD11" s="10"/>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="D12"/>
+      <c r="D12" s="2"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10"/>
       <c r="N12" s="8"/>
@@ -1454,10 +1544,8 @@
       <c r="AR12" s="8"/>
       <c r="AX12" s="8"/>
     </row>
-    <row r="13" spans="1:65" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D13" s="25" t="s">
-        <v>94</v>
-      </c>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="D13" s="25"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="N13" s="8"/>
@@ -1589,7 +1677,7 @@
     <hyperlink ref="M7" r:id="rId34" display="https://www.aigodlike.com/" xr:uid="{B99CA26A-2477-44C1-B417-B0BE6BEF6F00}"/>
     <hyperlink ref="P7" r:id="rId35" display="https://www.aigodlike.com/" xr:uid="{2F04B75E-4981-4079-85B8-B87D35066D3D}"/>
     <hyperlink ref="B10" r:id="rId36" xr:uid="{B6A068DE-F12F-4FC1-8595-76EB3DD283BC}"/>
-    <hyperlink ref="D13" r:id="rId37" display="https://learningprompt.wiki/docs" xr:uid="{9DAAE0B4-2567-46B7-B49F-13A762B7C505}"/>
+    <hyperlink ref="AR5" r:id="rId37" xr:uid="{7BA1E78E-4DA6-447D-AA25-037839111DD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C21B35E-2267-43B2-8B72-B9918B1210AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC3087E-584B-424A-99BF-6C8C5B529D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -408,6 +408,18 @@
   </si>
   <si>
     <t>found ai</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://seaart.ai</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeaArt-海艺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>海艺AI - 全民艺术创作平台，发现创意、捕捉灵感、即刻创作</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -916,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AT7" sqref="AT7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1387,8 +1399,16 @@
       <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="G6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="I6" s="9"/>
+      <c r="J6" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="K6" s="14"/>
       <c r="M6" s="1" t="s">
         <v>66</v>
@@ -1678,8 +1698,9 @@
     <hyperlink ref="P7" r:id="rId35" display="https://www.aigodlike.com/" xr:uid="{2F04B75E-4981-4079-85B8-B87D35066D3D}"/>
     <hyperlink ref="B10" r:id="rId36" xr:uid="{B6A068DE-F12F-4FC1-8595-76EB3DD283BC}"/>
     <hyperlink ref="AR5" r:id="rId37" xr:uid="{7BA1E78E-4DA6-447D-AA25-037839111DD8}"/>
+    <hyperlink ref="H6" r:id="rId38" xr:uid="{31F00BD3-9AC5-4B70-9FA4-71D3490F0D60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC3087E-584B-424A-99BF-6C8C5B529D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260EE574-F8E1-4677-A298-17B2BE11C65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>nice</t>
   </si>
   <si>
-    <t>AI模型分享</t>
-  </si>
-  <si>
     <t>teacher</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
   </si>
   <si>
     <t>designweb</t>
-  </si>
-  <si>
-    <t>📺️ B站收藏 &lt;span&gt;(Stable Diffusion教程)&lt;/span&gt;</t>
   </si>
   <si>
     <t>bilibili</t>
@@ -422,12 +416,39 @@
     <t>海艺AI - 全民艺术创作平台，发现创意、捕捉灵感、即刻创作</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📺️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B站收藏 &lt;span&gt;(Stable Diffusion教程)&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI模型分享&lt;span&gt;包含在线AI绘画聊天&lt;/span&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +560,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -571,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,6 +686,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,7 +972,7 @@
   <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -964,48 +1007,48 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AW1" s="5"/>
       <c r="BC1" s="5"/>
@@ -1013,131 +1056,131 @@
     </row>
     <row r="2" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="R2" s="17"/>
       <c r="S2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="AD2" s="18"/>
       <c r="AE2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="AP2" s="17"/>
       <c r="AQ2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="AV2" s="17"/>
       <c r="AW2" s="6"/>
@@ -1160,90 +1203,90 @@
     </row>
     <row r="3" spans="1:65" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="14"/>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="S3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="Z3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AB3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AC3" s="14"/>
       <c r="AE3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG3" s="8"/>
       <c r="AH3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AL3" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM3" s="8"/>
       <c r="AN3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AQ3" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AR3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT3" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="AT3" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
@@ -1252,39 +1295,39 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K4" s="14"/>
       <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="T4" s="8"/>
@@ -1294,28 +1337,28 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AK4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AN4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AM4" s="13" t="s">
+      <c r="AO4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO4" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="AQ4" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AR4" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AT4" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="BD4" s="8"/>
@@ -1323,42 +1366,42 @@
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="J5" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="T5" s="8"/>
@@ -1367,22 +1410,22 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AK5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AL5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="AQ5" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AR5" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT5" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
@@ -1391,34 +1434,34 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G6" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="T6" s="13"/>
@@ -1436,26 +1479,26 @@
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="K7" s="14"/>
       <c r="M7" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="T7" s="13"/>
@@ -1472,13 +1515,13 @@
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1496,13 +1539,13 @@
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1519,13 +1562,13 @@
     </row>
     <row r="10" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="10"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260EE574-F8E1-4677-A298-17B2BE11C65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140CE604-F9AB-4D85-9109-02BBDB7D5F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>AI模型分享&lt;span&gt;包含在线AI绘画聊天&lt;/span&gt;</t>
+    <t>AI模型分享&lt;span&gt;（包含在线AI绘画聊天）&lt;/span&gt;</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
   <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140CE604-F9AB-4D85-9109-02BBDB7D5F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ECCF95-35FA-4C8F-B997-386D6E456C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -443,12 +443,35 @@
     <t>AI模型分享&lt;span&gt;（包含在线AI绘画聊天）&lt;/span&gt;</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>http://emojihomepage.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emoji Homepage 👀 - Copy and paste emoji. 💨 Fast and 👌 Simple.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Emoji Homepage </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👀</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +598,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -608,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +722,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -971,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1432,7 +1468,7 @@
       <c r="BD5" s="8"/>
       <c r="BJ5" s="8"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -1472,7 +1508,15 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AL6" s="10"/>
-      <c r="AR6" s="8"/>
+      <c r="AQ6" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT6" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="AX6" s="8"/>
       <c r="AY6" s="8"/>
       <c r="BD6" s="8"/>
@@ -1742,8 +1786,11 @@
     <hyperlink ref="B10" r:id="rId36" xr:uid="{B6A068DE-F12F-4FC1-8595-76EB3DD283BC}"/>
     <hyperlink ref="AR5" r:id="rId37" xr:uid="{7BA1E78E-4DA6-447D-AA25-037839111DD8}"/>
     <hyperlink ref="H6" r:id="rId38" xr:uid="{31F00BD3-9AC5-4B70-9FA4-71D3490F0D60}"/>
+    <hyperlink ref="AR6" r:id="rId39" xr:uid="{DBA4B1CA-DFA5-4C3C-AE5E-9B7A6BEEF50F}"/>
+    <hyperlink ref="AQ6" r:id="rId40" display="http://emojihomepage.com/" xr:uid="{A875CC64-F833-4920-8039-BD8E59E2489A}"/>
+    <hyperlink ref="AT6" r:id="rId41" display="http://emojihomepage.com/" xr:uid="{4294BF97-31AB-46DA-8F70-6ED0F2AE2795}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ECCF95-35FA-4C8F-B997-386D6E456C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54443828-F0A7-47F1-97F6-6D65650F5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -464,6 +464,18 @@
       </rPr>
       <t>👀</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1uT411t7jY</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>my3d (浙江传媒学院)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示词讲解很清晰，1.5倍速看</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1007,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1367,8 +1379,16 @@
       </c>
       <c r="Q4" s="9"/>
       <c r="T4" s="8"/>
-      <c r="Z4" s="9"/>
+      <c r="Y4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="AA4" s="9"/>
+      <c r="AB4" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="AC4" s="9"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
@@ -1789,8 +1809,9 @@
     <hyperlink ref="AR6" r:id="rId39" xr:uid="{DBA4B1CA-DFA5-4C3C-AE5E-9B7A6BEEF50F}"/>
     <hyperlink ref="AQ6" r:id="rId40" display="http://emojihomepage.com/" xr:uid="{A875CC64-F833-4920-8039-BD8E59E2489A}"/>
     <hyperlink ref="AT6" r:id="rId41" display="http://emojihomepage.com/" xr:uid="{4294BF97-31AB-46DA-8F70-6ED0F2AE2795}"/>
+    <hyperlink ref="Z4" r:id="rId42" xr:uid="{7AC78DA9-8365-477B-AC59-308BFACDFF27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54443828-F0A7-47F1-97F6-6D65650F5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D490BBB-C5A3-4E5B-A7DC-98F06A139DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1As4y127HW</t>
-  </si>
-  <si>
-    <t>https://img.mjj.today/2023/04/29/4dde3f0985147426c1e3ab1130b5760c.jpg</t>
   </si>
   <si>
     <t>B站第一套Stable Diffusion系统课程</t>
@@ -476,6 +473,14 @@
   </si>
   <si>
     <t>提示词讲解很清晰，1.5倍速看</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.mjj.today/2023/04/29/4dde3f0985147426c1e3ab1130b5760c.jpg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i2.mjj.rip/2023/07/04/fa3397ab2f3d56de3cbe0b6402f31774.png</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1025,7 @@
   <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1056,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1074,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="Y1" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>7</v>
@@ -1093,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AW1" s="5"/>
       <c r="BC1" s="5"/>
@@ -1300,41 +1305,41 @@
         <v>31</v>
       </c>
       <c r="AA3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="AC3" s="14"/>
       <c r="AE3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="AG3" s="8"/>
       <c r="AH3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="AL3" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="AM3" s="8"/>
       <c r="AN3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AQ3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT3" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT3" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
@@ -1343,78 +1348,80 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="14"/>
       <c r="M4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="T4" s="8"/>
       <c r="Y4" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB4" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="AC4" s="9"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AK4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AM4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AM4" s="13" t="s">
+      <c r="AN4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AO4" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="AQ4" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT4" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="AT4" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="BD4" s="8"/>
@@ -1422,42 +1429,42 @@
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="G5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="T5" s="8"/>
@@ -1466,22 +1473,22 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AK5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AL5" s="8" t="s">
+      <c r="AN5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN5" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AQ5" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT5" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="AT5" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
@@ -1490,34 +1497,34 @@
     </row>
     <row r="6" spans="1:65" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G6" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="T6" s="13"/>
@@ -1529,13 +1536,13 @@
       <c r="AG6" s="8"/>
       <c r="AL6" s="10"/>
       <c r="AQ6" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT6" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="AT6" s="28" t="s">
-        <v>101</v>
       </c>
       <c r="AX6" s="8"/>
       <c r="AY6" s="8"/>
@@ -1543,26 +1550,26 @@
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="K7" s="14"/>
       <c r="M7" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="T7" s="13"/>
@@ -1579,13 +1586,13 @@
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1603,13 +1610,13 @@
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1626,13 +1633,13 @@
     </row>
     <row r="10" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>88</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="10"/>
@@ -1810,8 +1817,9 @@
     <hyperlink ref="AQ6" r:id="rId40" display="http://emojihomepage.com/" xr:uid="{A875CC64-F833-4920-8039-BD8E59E2489A}"/>
     <hyperlink ref="AT6" r:id="rId41" display="http://emojihomepage.com/" xr:uid="{4294BF97-31AB-46DA-8F70-6ED0F2AE2795}"/>
     <hyperlink ref="Z4" r:id="rId42" xr:uid="{7AC78DA9-8365-477B-AC59-308BFACDFF27}"/>
+    <hyperlink ref="AA4" r:id="rId43" xr:uid="{1078C376-135F-4D2E-A383-3004E5716C38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D490BBB-C5A3-4E5B-A7DC-98F06A139DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7D475D-A75C-46A2-8EA0-E95601446562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -121,13 +121,7 @@
     <t>B站第一套Stable Diffusion系统课程</t>
   </si>
   <si>
-    <t>免费的 ChatGPT</t>
-  </si>
-  <si>
     <t>https://study.zwjjiaozhu.top/posts/chatgpt-mirror-sites.html</t>
-  </si>
-  <si>
-    <t>免费的 ChatGPT 镜像网站</t>
   </si>
   <si>
     <t>AI大师</t>
@@ -481,6 +475,79 @@
   </si>
   <si>
     <t>https://i2.mjj.rip/2023/07/04/fa3397ab2f3d56de3cbe0b6402f31774.png</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.openaichat.cc/web/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatgpt1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要扫码登录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wz.aidaohang.com.cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI导航</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ai.xiaohongshu.live/zh?f=1nav.ml</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书文案</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯正小红书风
+一键轻松创作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wz.aidaohang.com.cn/taifeng/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风的AI魔法世界</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://a2a.top</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI艺术天堂</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 艺术家的网址导航，让大家发现更多 AI 艺术的世界。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI导航 | 链接AI世界</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aust001.pythonanywhere.com/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费的 ChatGPT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费的 ChatGPT 镜像网站</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatGPT-4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +812,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1024,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1079,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="Y1" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>7</v>
@@ -1098,10 +1168,10 @@
         <v>11</v>
       </c>
       <c r="AQ1" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AW1" s="5"/>
       <c r="BC1" s="5"/>
@@ -1305,41 +1375,41 @@
         <v>31</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AC3" s="14"/>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="AG3" s="8"/>
-      <c r="AH3" s="1" t="s">
-        <v>35</v>
+      <c r="AH3" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM3" s="8"/>
       <c r="AN3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AQ3" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT3" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="AT3" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
@@ -1348,147 +1418,163 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="14"/>
       <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="T4" s="8"/>
       <c r="Y4" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB4" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AC4" s="9"/>
+      <c r="AE4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="AB4" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC4" s="9"/>
-      <c r="AF4" s="8"/>
+      <c r="AF4" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="AG4" s="8"/>
+      <c r="AH4" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="AK4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AN4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AM4" s="13" t="s">
+      <c r="AO4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO4" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="AQ4" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AR4" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AT4" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="BD4" s="8"/>
       <c r="BJ4" s="8"/>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="J5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="T5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AF5" s="8"/>
+      <c r="AE5" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="AG5" s="8"/>
+      <c r="AH5" s="30" t="s">
+        <v>112</v>
+      </c>
       <c r="AK5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AL5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AQ5" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AR5" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AT5" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
@@ -1497,34 +1583,34 @@
     </row>
     <row r="6" spans="1:65" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G6" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="T6" s="13"/>
@@ -1532,17 +1618,33 @@
       <c r="W6" s="14"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
-      <c r="AF6" s="8"/>
+      <c r="AE6" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="AG6" s="8"/>
-      <c r="AL6" s="10"/>
+      <c r="AH6" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK6" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN6" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="AQ6" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR6" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AT6" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX6" s="8"/>
       <c r="AY6" s="8"/>
@@ -1550,26 +1652,26 @@
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="K7" s="14"/>
       <c r="M7" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="T7" s="13"/>
@@ -1579,20 +1681,28 @@
       <c r="AA7" s="8"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
-      <c r="AL7" s="8"/>
+      <c r="AK7" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN7" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="AR7" s="8"/>
       <c r="AX7" s="10"/>
       <c r="BD7" s="8"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1610,13 +1720,13 @@
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1633,13 +1743,13 @@
     </row>
     <row r="10" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="10"/>
@@ -1654,6 +1764,12 @@
       <c r="BD10" s="8"/>
     </row>
     <row r="11" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" s="24"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10"/>
@@ -1818,8 +1934,15 @@
     <hyperlink ref="AT6" r:id="rId41" display="http://emojihomepage.com/" xr:uid="{4294BF97-31AB-46DA-8F70-6ED0F2AE2795}"/>
     <hyperlink ref="Z4" r:id="rId42" xr:uid="{7AC78DA9-8365-477B-AC59-308BFACDFF27}"/>
     <hyperlink ref="AA4" r:id="rId43" xr:uid="{1078C376-135F-4D2E-A383-3004E5716C38}"/>
+    <hyperlink ref="AF4" r:id="rId44" xr:uid="{8C8DE9F5-A1F1-4A50-BD60-300906CDA1A7}"/>
+    <hyperlink ref="AL6" r:id="rId45" xr:uid="{BE2ED881-8576-4C08-9921-98345ABF5DEC}"/>
+    <hyperlink ref="AF5" r:id="rId46" xr:uid="{664C813B-FD8E-4406-9AAE-D1E0121E3B66}"/>
+    <hyperlink ref="B11" r:id="rId47" xr:uid="{996AA4F6-99B4-44DD-BDF8-5857E4EDF72E}"/>
+    <hyperlink ref="AL7" r:id="rId48" xr:uid="{0CDD4E12-4B5F-4809-A0CF-38B9925E2A6B}"/>
+    <hyperlink ref="AK7" r:id="rId49" display="https://a2a.top/" xr:uid="{AE82C3F3-1C8A-4B6E-B1A8-975CA6FF8541}"/>
+    <hyperlink ref="AF6" r:id="rId50" xr:uid="{FEE655E2-C93A-438E-BE2F-3C43DE619DCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7D475D-A75C-46A2-8EA0-E95601446562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D462C5B-82F8-404B-91C0-2649B59EBCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="126">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -550,12 +550,24 @@
     <t>ChatGPT-4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>大学思政教材问答GPT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chatmarx.zihaoai.cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>向你的近代史、思修、毛概、马原教材提问吧！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +579,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -581,6 +594,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -589,6 +603,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -602,12 +617,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -690,6 +707,14 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -722,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +840,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1679,8 +1707,16 @@
       <c r="W7" s="9"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
+      <c r="AE7" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31" t="s">
+        <v>125</v>
+      </c>
       <c r="AK7" s="29" t="s">
         <v>116</v>
       </c>
@@ -1941,8 +1977,9 @@
     <hyperlink ref="AL7" r:id="rId48" xr:uid="{0CDD4E12-4B5F-4809-A0CF-38B9925E2A6B}"/>
     <hyperlink ref="AK7" r:id="rId49" display="https://a2a.top/" xr:uid="{AE82C3F3-1C8A-4B6E-B1A8-975CA6FF8541}"/>
     <hyperlink ref="AF6" r:id="rId50" xr:uid="{FEE655E2-C93A-438E-BE2F-3C43DE619DCE}"/>
+    <hyperlink ref="AF7" r:id="rId51" xr:uid="{3B415210-4BBE-4910-AB69-0F92AEECC5DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D462C5B-82F8-404B-91C0-2649B59EBCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8172E-2A08-48F1-91DB-F20FC097111F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="130">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -560,6 +560,22 @@
   </si>
   <si>
     <t>向你的近代史、思修、毛概、马原教材提问吧！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ice.frostsky.com/2023/08/16/9873eaa9ac23b681ff5eb88f5ba3f524.png</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ice.frostsky.com/2023/08/16/0fd08c82105d3532fc80a3eba505a5ea.png</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ice.frostsky.com/2023/08/16/83145e75e6d2c6e1fc08811914109fc8.png</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.openaichat.cc/static/img/no_avatar.png</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1122,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1501,7 +1517,9 @@
       <c r="AF4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="8"/>
+      <c r="AG4" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="AH4" s="20" t="s">
         <v>107</v>
       </c>
@@ -1582,7 +1600,9 @@
       <c r="AF5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AG5" s="8"/>
+      <c r="AG5" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="AH5" s="30" t="s">
         <v>112</v>
       </c>
@@ -1600,6 +1620,9 @@
       </c>
       <c r="AR5" s="8" t="s">
         <v>89</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="AT5" s="20" t="s">
         <v>90</v>
@@ -1713,7 +1736,9 @@
       <c r="AF7" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AG7" s="31"/>
+      <c r="AG7" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="AH7" s="31" t="s">
         <v>125</v>
       </c>
@@ -1978,8 +2003,12 @@
     <hyperlink ref="AK7" r:id="rId49" display="https://a2a.top/" xr:uid="{AE82C3F3-1C8A-4B6E-B1A8-975CA6FF8541}"/>
     <hyperlink ref="AF6" r:id="rId50" xr:uid="{FEE655E2-C93A-438E-BE2F-3C43DE619DCE}"/>
     <hyperlink ref="AF7" r:id="rId51" xr:uid="{3B415210-4BBE-4910-AB69-0F92AEECC5DF}"/>
+    <hyperlink ref="AG7" r:id="rId52" xr:uid="{0CC6A87D-ED8B-4558-A8A4-251E5D110442}"/>
+    <hyperlink ref="AG5" r:id="rId53" xr:uid="{73FF7FF6-3B88-4CC5-8408-9A07D9802835}"/>
+    <hyperlink ref="AS5" r:id="rId54" xr:uid="{98ABB712-873C-4368-8DD3-1E492FAA3687}"/>
+    <hyperlink ref="AG4" r:id="rId55" xr:uid="{4E97C503-0611-415E-8C9E-71CF2216488C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>